--- a/N_lim/output/ile_zgene.xlsx
+++ b/N_lim/output/ile_zgene.xlsx
@@ -14,546 +14,552 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="182">
+  <si>
+    <t>GPD2</t>
+  </si>
+  <si>
+    <t>SES1</t>
+  </si>
+  <si>
+    <t>FAS1</t>
+  </si>
+  <si>
+    <t>VAS1</t>
+  </si>
+  <si>
+    <t>FAA4</t>
+  </si>
+  <si>
+    <t>HTS1</t>
+  </si>
+  <si>
+    <t>ADE13</t>
+  </si>
+  <si>
+    <t>ACO2</t>
+  </si>
+  <si>
+    <t>LYS12</t>
+  </si>
+  <si>
+    <t>BNA6</t>
+  </si>
+  <si>
+    <t>AGC1</t>
+  </si>
+  <si>
+    <t>PSD1</t>
+  </si>
+  <si>
+    <t>MET12</t>
+  </si>
+  <si>
+    <t>FMN1</t>
+  </si>
+  <si>
+    <t>ABZ2</t>
+  </si>
+  <si>
+    <t>FOL2</t>
+  </si>
+  <si>
+    <t>DED81</t>
+  </si>
+  <si>
+    <t>ARO2</t>
+  </si>
+  <si>
+    <t>ABZ1</t>
+  </si>
+  <si>
+    <t>FAP7</t>
+  </si>
+  <si>
+    <t>GAP1</t>
+  </si>
+  <si>
+    <t>PAN5</t>
+  </si>
+  <si>
+    <t>FOL1</t>
+  </si>
+  <si>
+    <t>THS1</t>
+  </si>
+  <si>
+    <t>CDC60</t>
+  </si>
+  <si>
+    <t>URA5</t>
+  </si>
+  <si>
+    <t>RPE1</t>
+  </si>
+  <si>
+    <t>SDH2</t>
+  </si>
+  <si>
+    <t>MET17</t>
+  </si>
+  <si>
+    <t>LPD1</t>
+  </si>
+  <si>
+    <t>PIS1</t>
+  </si>
+  <si>
+    <t>TRP3</t>
+  </si>
+  <si>
+    <t>CTP1</t>
+  </si>
+  <si>
+    <t>FUM1</t>
+  </si>
+  <si>
+    <t>ARO4</t>
+  </si>
+  <si>
+    <t>ARG1</t>
+  </si>
+  <si>
+    <t>ERG12</t>
+  </si>
+  <si>
+    <t>MES1</t>
+  </si>
+  <si>
+    <t>MDH2</t>
+  </si>
+  <si>
+    <t>MTD1</t>
+  </si>
+  <si>
+    <t>FRD1</t>
+  </si>
+  <si>
+    <t>LYS9</t>
+  </si>
+  <si>
+    <t>YIA6</t>
+  </si>
+  <si>
+    <t>ECM31</t>
+  </si>
+  <si>
+    <t>HIS4</t>
+  </si>
+  <si>
+    <t>HIS5</t>
+  </si>
+  <si>
+    <t>ADI1</t>
+  </si>
+  <si>
+    <t>PIC2</t>
+  </si>
+  <si>
+    <t>DIC1</t>
+  </si>
+  <si>
+    <t>LYS21</t>
+  </si>
+  <si>
+    <t>MET14</t>
+  </si>
+  <si>
+    <t>ARG5,6</t>
+  </si>
+  <si>
+    <t>BNA5</t>
+  </si>
+  <si>
+    <t>PRS1</t>
+  </si>
+  <si>
+    <t>ACO1</t>
+  </si>
+  <si>
+    <t>PHO8</t>
+  </si>
+  <si>
+    <t>HIS1</t>
+  </si>
+  <si>
+    <t>MDE1</t>
+  </si>
+  <si>
+    <t>HIS3</t>
+  </si>
+  <si>
+    <t>GLN4</t>
+  </si>
+  <si>
+    <t>NAT1</t>
+  </si>
+  <si>
+    <t>GLN1</t>
+  </si>
+  <si>
+    <t>LEU4</t>
+  </si>
+  <si>
+    <t>TYR1</t>
+  </si>
+  <si>
+    <t>ILV5</t>
+  </si>
+  <si>
+    <t>ORT1</t>
+  </si>
+  <si>
+    <t>LYS4</t>
+  </si>
+  <si>
+    <t>CAB3</t>
+  </si>
+  <si>
+    <t>ALE1</t>
+  </si>
+  <si>
+    <t>YEA6</t>
+  </si>
+  <si>
+    <t>CAB2</t>
+  </si>
+  <si>
+    <t>GRS2</t>
+  </si>
+  <si>
+    <t>URA2</t>
+  </si>
+  <si>
+    <t>NAT2</t>
+  </si>
+  <si>
+    <t>CRC1</t>
+  </si>
+  <si>
+    <t>WRS1</t>
+  </si>
+  <si>
+    <t>MET6</t>
+  </si>
+  <si>
+    <t>BNA1</t>
+  </si>
+  <si>
+    <t>HIS2</t>
+  </si>
+  <si>
+    <t>SPE2</t>
+  </si>
+  <si>
+    <t>ALA1</t>
+  </si>
+  <si>
+    <t>PHA2</t>
+  </si>
+  <si>
+    <t>CPA2</t>
+  </si>
+  <si>
+    <t>INM1</t>
+  </si>
+  <si>
+    <t>QNS1</t>
+  </si>
+  <si>
+    <t>ARO8</t>
+  </si>
+  <si>
+    <t>URA10</t>
+  </si>
+  <si>
+    <t>MET22</t>
+  </si>
+  <si>
+    <t>FRS2</t>
+  </si>
+  <si>
+    <t>TYS1</t>
+  </si>
+  <si>
+    <t>MET5</t>
+  </si>
+  <si>
+    <t>TRP2</t>
+  </si>
+  <si>
+    <t>ADE3</t>
+  </si>
+  <si>
+    <t>PRS2</t>
+  </si>
+  <si>
+    <t>ODC2</t>
+  </si>
+  <si>
+    <t>TRR1</t>
+  </si>
+  <si>
+    <t>OPI3</t>
+  </si>
+  <si>
+    <t>TRX2</t>
+  </si>
+  <si>
+    <t>ILV6</t>
+  </si>
+  <si>
+    <t>HOM6</t>
+  </si>
+  <si>
+    <t>ADE12</t>
+  </si>
+  <si>
+    <t>GUK1</t>
+  </si>
+  <si>
+    <t>APA1</t>
+  </si>
+  <si>
+    <t>ODC1</t>
+  </si>
+  <si>
+    <t>LYS2</t>
+  </si>
+  <si>
+    <t>PRS5</t>
+  </si>
+  <si>
+    <t>TRX1</t>
+  </si>
+  <si>
+    <t>AYR1</t>
+  </si>
+  <si>
+    <t>ADE17</t>
+  </si>
   <si>
     <t>OAC1</t>
   </si>
   <si>
-    <t>BNA6</t>
-  </si>
-  <si>
-    <t>MET6</t>
+    <t>ISC1</t>
+  </si>
+  <si>
+    <t>ARD1</t>
+  </si>
+  <si>
+    <t>LAG1</t>
+  </si>
+  <si>
+    <t>GPT2</t>
+  </si>
+  <si>
+    <t>CPA1</t>
+  </si>
+  <si>
+    <t>DIA4</t>
+  </si>
+  <si>
+    <t>ADE16</t>
+  </si>
+  <si>
+    <t>MET13</t>
+  </si>
+  <si>
+    <t>CHO1</t>
+  </si>
+  <si>
+    <t>CHO2</t>
+  </si>
+  <si>
+    <t>CDS1</t>
+  </si>
+  <si>
+    <t>FMS1</t>
+  </si>
+  <si>
+    <t>KGD1</t>
+  </si>
+  <si>
+    <t>IPP1</t>
+  </si>
+  <si>
+    <t>ZWF1</t>
+  </si>
+  <si>
+    <t>BNA4</t>
+  </si>
+  <si>
+    <t>PRS3</t>
+  </si>
+  <si>
+    <t>MEU1</t>
+  </si>
+  <si>
+    <t>DPS1</t>
+  </si>
+  <si>
+    <t>JEN1</t>
+  </si>
+  <si>
+    <t>ARG4</t>
+  </si>
+  <si>
+    <t>BNA7</t>
+  </si>
+  <si>
+    <t>GUT2</t>
+  </si>
+  <si>
+    <t>ERG13</t>
+  </si>
+  <si>
+    <t>YNK1</t>
+  </si>
+  <si>
+    <t>SDH4</t>
+  </si>
+  <si>
+    <t>PRO3</t>
+  </si>
+  <si>
+    <t>BNA2</t>
+  </si>
+  <si>
+    <t>KGD2</t>
+  </si>
+  <si>
+    <t>LYS20</t>
+  </si>
+  <si>
+    <t>LIP1</t>
+  </si>
+  <si>
+    <t>BDH1</t>
+  </si>
+  <si>
+    <t>ARG8</t>
+  </si>
+  <si>
+    <t>MET10</t>
   </si>
   <si>
     <t>FAT1</t>
   </si>
   <si>
-    <t>LYS9</t>
-  </si>
-  <si>
-    <t>FUM1</t>
-  </si>
-  <si>
-    <t>PAN5</t>
-  </si>
-  <si>
-    <t>ERG13</t>
-  </si>
-  <si>
-    <t>GPT2</t>
-  </si>
-  <si>
-    <t>TRP3</t>
-  </si>
-  <si>
-    <t>CHO2</t>
-  </si>
-  <si>
-    <t>DIA4</t>
-  </si>
-  <si>
-    <t>AYR1</t>
+    <t>BAT2</t>
+  </si>
+  <si>
+    <t>FOL3</t>
+  </si>
+  <si>
+    <t>CAB4</t>
+  </si>
+  <si>
+    <t>GUS1</t>
+  </si>
+  <si>
+    <t>TRP5</t>
+  </si>
+  <si>
+    <t>MIR1</t>
+  </si>
+  <si>
+    <t>ILV2</t>
+  </si>
+  <si>
+    <t>FAS2</t>
+  </si>
+  <si>
+    <t>FAA1</t>
+  </si>
+  <si>
+    <t>SDH1</t>
+  </si>
+  <si>
+    <t>SHM1</t>
+  </si>
+  <si>
+    <t>ARO3</t>
+  </si>
+  <si>
+    <t>FRS1</t>
+  </si>
+  <si>
+    <t>APT1</t>
+  </si>
+  <si>
+    <t>UTR4</t>
+  </si>
+  <si>
+    <t>INM2</t>
+  </si>
+  <si>
+    <t>MRI1</t>
+  </si>
+  <si>
+    <t>LEU2</t>
+  </si>
+  <si>
+    <t>ICL1</t>
+  </si>
+  <si>
+    <t>ARG3</t>
+  </si>
+  <si>
+    <t>ADK1</t>
+  </si>
+  <si>
+    <t>ARO1</t>
   </si>
   <si>
     <t>GRS1</t>
   </si>
   <si>
-    <t>CAB3</t>
-  </si>
-  <si>
-    <t>CPA2</t>
-  </si>
-  <si>
-    <t>FAP7</t>
-  </si>
-  <si>
-    <t>ILV6</t>
-  </si>
-  <si>
-    <t>ILV2</t>
-  </si>
-  <si>
-    <t>ILV5</t>
-  </si>
-  <si>
-    <t>URA5</t>
-  </si>
-  <si>
-    <t>ADE16</t>
-  </si>
-  <si>
-    <t>HIS1</t>
-  </si>
-  <si>
-    <t>GRS2</t>
-  </si>
-  <si>
-    <t>SPE2</t>
-  </si>
-  <si>
-    <t>GUS1</t>
-  </si>
-  <si>
-    <t>TYR1</t>
-  </si>
-  <si>
-    <t>APA1</t>
-  </si>
-  <si>
-    <t>ADK1</t>
-  </si>
-  <si>
-    <t>ARO2</t>
-  </si>
-  <si>
-    <t>ICL1</t>
-  </si>
-  <si>
-    <t>ARO1</t>
-  </si>
-  <si>
-    <t>PIC2</t>
-  </si>
-  <si>
-    <t>ADE12</t>
-  </si>
-  <si>
-    <t>ARD1</t>
-  </si>
-  <si>
-    <t>ARO8</t>
-  </si>
-  <si>
-    <t>CTP1</t>
-  </si>
-  <si>
-    <t>DED81</t>
-  </si>
-  <si>
-    <t>PRO3</t>
-  </si>
-  <si>
-    <t>TRP2</t>
-  </si>
-  <si>
-    <t>TRX2</t>
+    <t>IDP2</t>
+  </si>
+  <si>
+    <t>HIS7</t>
+  </si>
+  <si>
+    <t>TRP4</t>
+  </si>
+  <si>
+    <t>ILS1</t>
+  </si>
+  <si>
+    <t>SLC1</t>
+  </si>
+  <si>
+    <t>CAB1</t>
+  </si>
+  <si>
+    <t>SCT1</t>
+  </si>
+  <si>
+    <t>LYS1</t>
+  </si>
+  <si>
+    <t>ARO7</t>
+  </si>
+  <si>
+    <t>SDH3</t>
+  </si>
+  <si>
+    <t>HOM3</t>
   </si>
   <si>
     <t>MET2</t>
   </si>
   <si>
-    <t>KGD2</t>
-  </si>
-  <si>
-    <t>IDP2</t>
-  </si>
-  <si>
-    <t>BNA7</t>
-  </si>
-  <si>
-    <t>LIP1</t>
-  </si>
-  <si>
-    <t>ACO1</t>
-  </si>
-  <si>
-    <t>GPD2</t>
-  </si>
-  <si>
-    <t>ODC2</t>
-  </si>
-  <si>
-    <t>TRR1</t>
-  </si>
-  <si>
-    <t>SDH4</t>
-  </si>
-  <si>
-    <t>ARG8</t>
-  </si>
-  <si>
-    <t>IPP1</t>
-  </si>
-  <si>
-    <t>BAT2</t>
-  </si>
-  <si>
-    <t>HIS2</t>
-  </si>
-  <si>
-    <t>PRS1</t>
-  </si>
-  <si>
-    <t>HOM6</t>
-  </si>
-  <si>
-    <t>ABZ1</t>
-  </si>
-  <si>
-    <t>GLN1</t>
-  </si>
-  <si>
-    <t>TRP5</t>
-  </si>
-  <si>
-    <t>UTR4</t>
-  </si>
-  <si>
-    <t>LYS20</t>
-  </si>
-  <si>
-    <t>ARG1</t>
-  </si>
-  <si>
-    <t>KGD1</t>
-  </si>
-  <si>
-    <t>ALA1</t>
-  </si>
-  <si>
-    <t>BNA1</t>
-  </si>
-  <si>
-    <t>MRI1</t>
-  </si>
-  <si>
-    <t>MET5</t>
-  </si>
-  <si>
-    <t>BNA5</t>
-  </si>
-  <si>
-    <t>SHM1</t>
-  </si>
-  <si>
-    <t>ADI1</t>
-  </si>
-  <si>
-    <t>ARG4</t>
-  </si>
-  <si>
-    <t>MET22</t>
-  </si>
-  <si>
-    <t>FOL2</t>
-  </si>
-  <si>
-    <t>ADE3</t>
-  </si>
-  <si>
     <t>ARG7</t>
   </si>
   <si>
-    <t>FAA1</t>
-  </si>
-  <si>
-    <t>FMN1</t>
-  </si>
-  <si>
-    <t>ILS1</t>
-  </si>
-  <si>
-    <t>ERG12</t>
-  </si>
-  <si>
-    <t>MET13</t>
-  </si>
-  <si>
-    <t>HIS3</t>
-  </si>
-  <si>
-    <t>TRX1</t>
-  </si>
-  <si>
-    <t>MET17</t>
-  </si>
-  <si>
-    <t>HIS7</t>
-  </si>
-  <si>
-    <t>LYS4</t>
-  </si>
-  <si>
-    <t>BNA4</t>
-  </si>
-  <si>
-    <t>PSD1</t>
-  </si>
-  <si>
-    <t>YNK1</t>
-  </si>
-  <si>
-    <t>PRS3</t>
-  </si>
-  <si>
-    <t>ARO4</t>
-  </si>
-  <si>
-    <t>ADE13</t>
-  </si>
-  <si>
-    <t>MEU1</t>
-  </si>
-  <si>
-    <t>INM1</t>
-  </si>
-  <si>
-    <t>LAG1</t>
-  </si>
-  <si>
-    <t>SES1</t>
-  </si>
-  <si>
-    <t>FOL3</t>
-  </si>
-  <si>
-    <t>FAS2</t>
-  </si>
-  <si>
-    <t>VAS1</t>
-  </si>
-  <si>
-    <t>ALE1</t>
-  </si>
-  <si>
-    <t>OPI3</t>
-  </si>
-  <si>
-    <t>PRS2</t>
-  </si>
-  <si>
-    <t>PIS1</t>
-  </si>
-  <si>
-    <t>CDC60</t>
-  </si>
-  <si>
-    <t>BNA2</t>
-  </si>
-  <si>
-    <t>AGC1</t>
-  </si>
-  <si>
-    <t>ACO2</t>
-  </si>
-  <si>
-    <t>TRP4</t>
-  </si>
-  <si>
-    <t>MET10</t>
-  </si>
-  <si>
-    <t>MET12</t>
-  </si>
-  <si>
-    <t>LYS12</t>
-  </si>
-  <si>
-    <t>CHO1</t>
-  </si>
-  <si>
-    <t>ODC1</t>
-  </si>
-  <si>
-    <t>CAB2</t>
-  </si>
-  <si>
-    <t>YIA6</t>
-  </si>
-  <si>
-    <t>ARO3</t>
-  </si>
-  <si>
-    <t>ISC1</t>
-  </si>
-  <si>
-    <t>CAB4</t>
-  </si>
-  <si>
-    <t>LYS1</t>
-  </si>
-  <si>
-    <t>HTS1</t>
-  </si>
-  <si>
-    <t>URA10</t>
-  </si>
-  <si>
-    <t>NAT2</t>
-  </si>
-  <si>
-    <t>LEU4</t>
-  </si>
-  <si>
-    <t>SDH3</t>
-  </si>
-  <si>
-    <t>LYS21</t>
-  </si>
-  <si>
     <t>ILV3</t>
-  </si>
-  <si>
-    <t>FRD1</t>
-  </si>
-  <si>
-    <t>GUK1</t>
-  </si>
-  <si>
-    <t>ORT1</t>
-  </si>
-  <si>
-    <t>LPD1</t>
-  </si>
-  <si>
-    <t>ZWF1</t>
-  </si>
-  <si>
-    <t>ARO7</t>
-  </si>
-  <si>
-    <t>RPE1</t>
-  </si>
-  <si>
-    <t>ADE17</t>
-  </si>
-  <si>
-    <t>CAB1</t>
-  </si>
-  <si>
-    <t>FRS2</t>
-  </si>
-  <si>
-    <t>TYS1</t>
-  </si>
-  <si>
-    <t>PRS5</t>
-  </si>
-  <si>
-    <t>INM2</t>
-  </si>
-  <si>
-    <t>GLN4</t>
-  </si>
-  <si>
-    <t>FRS1</t>
-  </si>
-  <si>
-    <t>THS1</t>
-  </si>
-  <si>
-    <t>CPA1</t>
-  </si>
-  <si>
-    <t>FMS1</t>
-  </si>
-  <si>
-    <t>PHA2</t>
-  </si>
-  <si>
-    <t>GUT2</t>
-  </si>
-  <si>
-    <t>SCT1</t>
-  </si>
-  <si>
-    <t>HIS4</t>
-  </si>
-  <si>
-    <t>APT1</t>
-  </si>
-  <si>
-    <t>ECM31</t>
-  </si>
-  <si>
-    <t>PHO8</t>
-  </si>
-  <si>
-    <t>CDS1</t>
-  </si>
-  <si>
-    <t>GAP1</t>
-  </si>
-  <si>
-    <t>BDH1</t>
-  </si>
-  <si>
-    <t>ARG5,6</t>
-  </si>
-  <si>
-    <t>YEA6</t>
-  </si>
-  <si>
-    <t>HOM3</t>
-  </si>
-  <si>
-    <t>DPS1</t>
-  </si>
-  <si>
-    <t>ARG3</t>
-  </si>
-  <si>
-    <t>FOL1</t>
-  </si>
-  <si>
-    <t>URA2</t>
-  </si>
-  <si>
-    <t>ABZ2</t>
-  </si>
-  <si>
-    <t>QNS1</t>
-  </si>
-  <si>
-    <t>SLC1</t>
-  </si>
-  <si>
-    <t>MDH2</t>
-  </si>
-  <si>
-    <t>MES1</t>
-  </si>
-  <si>
-    <t>SDH2</t>
-  </si>
-  <si>
-    <t>MDE1</t>
-  </si>
-  <si>
-    <t>FAA4</t>
-  </si>
-  <si>
-    <t>HIS5</t>
-  </si>
-  <si>
-    <t>FAS1</t>
-  </si>
-  <si>
-    <t>MIR1</t>
-  </si>
-  <si>
-    <t>NAT1</t>
-  </si>
-  <si>
-    <t>CRC1</t>
-  </si>
-  <si>
-    <t>JEN1</t>
-  </si>
-  <si>
-    <t>SDH1</t>
-  </si>
-  <si>
-    <t>WRS1</t>
-  </si>
-  <si>
-    <t>MTD1</t>
-  </si>
-  <si>
-    <t>DIC1</t>
-  </si>
-  <si>
-    <t>MET14</t>
   </si>
 </sst>
 </file>
@@ -911,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A189"/>
+  <dimension ref="A1:A191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1269,132 +1275,132 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -1429,42 +1435,42 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -1504,362 +1510,372 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/N_lim/output/ile_zgene.xlsx
+++ b/N_lim/output/ile_zgene.xlsx
@@ -14,552 +14,462 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="152">
+  <si>
+    <t>WRS1</t>
+  </si>
+  <si>
+    <t>LYS4</t>
+  </si>
+  <si>
+    <t>TYR1</t>
+  </si>
+  <si>
+    <t>TYS1</t>
+  </si>
+  <si>
+    <t>PRS5</t>
+  </si>
+  <si>
+    <t>LYS21</t>
+  </si>
+  <si>
+    <t>TRP5</t>
+  </si>
+  <si>
+    <t>IDP2</t>
+  </si>
+  <si>
+    <t>LYS9</t>
+  </si>
+  <si>
+    <t>MET6</t>
+  </si>
+  <si>
+    <t>CDS1</t>
+  </si>
+  <si>
+    <t>MET13</t>
+  </si>
+  <si>
+    <t>ALE1</t>
+  </si>
+  <si>
+    <t>HIS1</t>
+  </si>
+  <si>
+    <t>CPA1</t>
+  </si>
+  <si>
+    <t>PIC2</t>
+  </si>
+  <si>
+    <t>URA10</t>
+  </si>
+  <si>
+    <t>GLN1</t>
+  </si>
+  <si>
+    <t>ALD6</t>
+  </si>
   <si>
     <t>GPD2</t>
   </si>
   <si>
+    <t>ILS1</t>
+  </si>
+  <si>
+    <t>PSD2</t>
+  </si>
+  <si>
+    <t>APA1</t>
+  </si>
+  <si>
+    <t>GPP1</t>
+  </si>
+  <si>
+    <t>PPN1</t>
+  </si>
+  <si>
+    <t>PMI40</t>
+  </si>
+  <si>
+    <t>ILV2</t>
+  </si>
+  <si>
+    <t>PRM15</t>
+  </si>
+  <si>
+    <t>HIS2</t>
+  </si>
+  <si>
+    <t>HOM6</t>
+  </si>
+  <si>
+    <t>FAP7</t>
+  </si>
+  <si>
+    <t>CHO1</t>
+  </si>
+  <si>
+    <t>URA5</t>
+  </si>
+  <si>
+    <t>HIS7</t>
+  </si>
+  <si>
+    <t>ARG3</t>
+  </si>
+  <si>
+    <t>ILV3</t>
+  </si>
+  <si>
+    <t>MIR1</t>
+  </si>
+  <si>
+    <t>SER1</t>
+  </si>
+  <si>
+    <t>TRX2</t>
+  </si>
+  <si>
+    <t>THS1</t>
+  </si>
+  <si>
+    <t>TRX1</t>
+  </si>
+  <si>
+    <t>PGK1</t>
+  </si>
+  <si>
+    <t>HIS3</t>
+  </si>
+  <si>
+    <t>HIS4</t>
+  </si>
+  <si>
+    <t>MET14</t>
+  </si>
+  <si>
+    <t>DPS1</t>
+  </si>
+  <si>
+    <t>LEU4</t>
+  </si>
+  <si>
+    <t>OPI3</t>
+  </si>
+  <si>
+    <t>LYS12</t>
+  </si>
+  <si>
+    <t>GPP2</t>
+  </si>
+  <si>
+    <t>FAA1</t>
+  </si>
+  <si>
+    <t>PGM1</t>
+  </si>
+  <si>
+    <t>MET5</t>
+  </si>
+  <si>
+    <t>ADE12</t>
+  </si>
+  <si>
+    <t>LYS1</t>
+  </si>
+  <si>
+    <t>LEU2</t>
+  </si>
+  <si>
+    <t>BAT2</t>
+  </si>
+  <si>
+    <t>THR1</t>
+  </si>
+  <si>
+    <t>ARO7</t>
+  </si>
+  <si>
+    <t>PRO1</t>
+  </si>
+  <si>
+    <t>PGM2</t>
+  </si>
+  <si>
+    <t>MAE1</t>
+  </si>
+  <si>
+    <t>ADE16</t>
+  </si>
+  <si>
+    <t>ADE13</t>
+  </si>
+  <si>
+    <t>PRS2</t>
+  </si>
+  <si>
+    <t>ADH1</t>
+  </si>
+  <si>
+    <t>FRS2</t>
+  </si>
+  <si>
+    <t>URA6</t>
+  </si>
+  <si>
+    <t>GRS1</t>
+  </si>
+  <si>
+    <t>MET2</t>
+  </si>
+  <si>
+    <t>MET22</t>
+  </si>
+  <si>
+    <t>PYC2</t>
+  </si>
+  <si>
+    <t>ARO3</t>
+  </si>
+  <si>
+    <t>PRO3</t>
+  </si>
+  <si>
+    <t>PSD1</t>
+  </si>
+  <si>
+    <t>PNP1</t>
+  </si>
+  <si>
+    <t>SFA1</t>
+  </si>
+  <si>
+    <t>GLN4</t>
+  </si>
+  <si>
+    <t>ARG1</t>
+  </si>
+  <si>
+    <t>ODC1</t>
+  </si>
+  <si>
+    <t>SHM2</t>
+  </si>
+  <si>
+    <t>SHM1</t>
+  </si>
+  <si>
+    <t>PYC1</t>
+  </si>
+  <si>
+    <t>CDC19</t>
+  </si>
+  <si>
+    <t>MET12</t>
+  </si>
+  <si>
+    <t>PFK2</t>
+  </si>
+  <si>
+    <t>ARG7</t>
+  </si>
+  <si>
+    <t>AGC1</t>
+  </si>
+  <si>
+    <t>ASN1</t>
+  </si>
+  <si>
+    <t>ADE3</t>
+  </si>
+  <si>
+    <t>TRR1</t>
+  </si>
+  <si>
+    <t>CHO2</t>
+  </si>
+  <si>
+    <t>ARO4</t>
+  </si>
+  <si>
+    <t>URA2</t>
+  </si>
+  <si>
+    <t>SER2</t>
+  </si>
+  <si>
+    <t>CDC60</t>
+  </si>
+  <si>
+    <t>FUM1</t>
+  </si>
+  <si>
+    <t>PPX1</t>
+  </si>
+  <si>
+    <t>ASN2</t>
+  </si>
+  <si>
+    <t>PFK1</t>
+  </si>
+  <si>
+    <t>ARG5,6</t>
+  </si>
+  <si>
+    <t>FRS1</t>
+  </si>
+  <si>
+    <t>TRP4</t>
+  </si>
+  <si>
+    <t>GPD1</t>
+  </si>
+  <si>
+    <t>ALA1</t>
+  </si>
+  <si>
+    <t>ARO2</t>
+  </si>
+  <si>
+    <t>YNK1</t>
+  </si>
+  <si>
+    <t>SEC53</t>
+  </si>
+  <si>
+    <t>TRP2</t>
+  </si>
+  <si>
+    <t>TRP3</t>
+  </si>
+  <si>
+    <t>ORT1</t>
+  </si>
+  <si>
+    <t>CTP1</t>
+  </si>
+  <si>
+    <t>ILV5</t>
+  </si>
+  <si>
+    <t>PYK2</t>
+  </si>
+  <si>
+    <t>FAA4</t>
+  </si>
+  <si>
+    <t>ADE17</t>
+  </si>
+  <si>
+    <t>SLC1</t>
+  </si>
+  <si>
+    <t>HIS5</t>
+  </si>
+  <si>
+    <t>LYS20</t>
+  </si>
+  <si>
+    <t>ADH5</t>
+  </si>
+  <si>
+    <t>ARG8</t>
+  </si>
+  <si>
+    <t>CPA2</t>
+  </si>
+  <si>
+    <t>DED81</t>
+  </si>
+  <si>
+    <t>HOM3</t>
+  </si>
+  <si>
+    <t>MET10</t>
+  </si>
+  <si>
+    <t>HTS1</t>
+  </si>
+  <si>
+    <t>GUS1</t>
+  </si>
+  <si>
+    <t>PPA2</t>
+  </si>
+  <si>
+    <t>PRS3</t>
+  </si>
+  <si>
+    <t>MES1</t>
+  </si>
+  <si>
+    <t>ARO1</t>
+  </si>
+  <si>
+    <t>PHA2</t>
+  </si>
+  <si>
+    <t>PRS1</t>
+  </si>
+  <si>
+    <t>ODC2</t>
+  </si>
+  <si>
+    <t>IDP1</t>
+  </si>
+  <si>
+    <t>NCE103</t>
+  </si>
+  <si>
+    <t>DIA4</t>
+  </si>
+  <si>
     <t>SES1</t>
   </si>
   <si>
-    <t>FAS1</t>
+    <t>ACO2</t>
+  </si>
+  <si>
+    <t>ARG4</t>
+  </si>
+  <si>
+    <t>THR4</t>
+  </si>
+  <si>
+    <t>GUK1</t>
+  </si>
+  <si>
+    <t>PRO2</t>
+  </si>
+  <si>
+    <t>FBA1</t>
+  </si>
+  <si>
+    <t>YND1</t>
+  </si>
+  <si>
+    <t>GRS2</t>
+  </si>
+  <si>
+    <t>ILV6</t>
+  </si>
+  <si>
+    <t>ADK1</t>
+  </si>
+  <si>
+    <t>ARO8</t>
   </si>
   <si>
     <t>VAS1</t>
   </si>
   <si>
-    <t>FAA4</t>
-  </si>
-  <si>
-    <t>HTS1</t>
-  </si>
-  <si>
-    <t>ADE13</t>
-  </si>
-  <si>
-    <t>ACO2</t>
-  </si>
-  <si>
-    <t>LYS12</t>
-  </si>
-  <si>
-    <t>BNA6</t>
-  </si>
-  <si>
-    <t>AGC1</t>
-  </si>
-  <si>
-    <t>PSD1</t>
-  </si>
-  <si>
-    <t>MET12</t>
-  </si>
-  <si>
-    <t>FMN1</t>
-  </si>
-  <si>
-    <t>ABZ2</t>
-  </si>
-  <si>
-    <t>FOL2</t>
-  </si>
-  <si>
-    <t>DED81</t>
-  </si>
-  <si>
-    <t>ARO2</t>
-  </si>
-  <si>
-    <t>ABZ1</t>
-  </si>
-  <si>
-    <t>FAP7</t>
-  </si>
-  <si>
-    <t>GAP1</t>
-  </si>
-  <si>
-    <t>PAN5</t>
-  </si>
-  <si>
-    <t>FOL1</t>
-  </si>
-  <si>
-    <t>THS1</t>
-  </si>
-  <si>
-    <t>CDC60</t>
-  </si>
-  <si>
-    <t>URA5</t>
-  </si>
-  <si>
-    <t>RPE1</t>
-  </si>
-  <si>
-    <t>SDH2</t>
+    <t>GDH2</t>
   </si>
   <si>
     <t>MET17</t>
-  </si>
-  <si>
-    <t>LPD1</t>
-  </si>
-  <si>
-    <t>PIS1</t>
-  </si>
-  <si>
-    <t>TRP3</t>
-  </si>
-  <si>
-    <t>CTP1</t>
-  </si>
-  <si>
-    <t>FUM1</t>
-  </si>
-  <si>
-    <t>ARO4</t>
-  </si>
-  <si>
-    <t>ARG1</t>
-  </si>
-  <si>
-    <t>ERG12</t>
-  </si>
-  <si>
-    <t>MES1</t>
-  </si>
-  <si>
-    <t>MDH2</t>
-  </si>
-  <si>
-    <t>MTD1</t>
-  </si>
-  <si>
-    <t>FRD1</t>
-  </si>
-  <si>
-    <t>LYS9</t>
-  </si>
-  <si>
-    <t>YIA6</t>
-  </si>
-  <si>
-    <t>ECM31</t>
-  </si>
-  <si>
-    <t>HIS4</t>
-  </si>
-  <si>
-    <t>HIS5</t>
-  </si>
-  <si>
-    <t>ADI1</t>
-  </si>
-  <si>
-    <t>PIC2</t>
-  </si>
-  <si>
-    <t>DIC1</t>
-  </si>
-  <si>
-    <t>LYS21</t>
-  </si>
-  <si>
-    <t>MET14</t>
-  </si>
-  <si>
-    <t>ARG5,6</t>
-  </si>
-  <si>
-    <t>BNA5</t>
-  </si>
-  <si>
-    <t>PRS1</t>
-  </si>
-  <si>
-    <t>ACO1</t>
-  </si>
-  <si>
-    <t>PHO8</t>
-  </si>
-  <si>
-    <t>HIS1</t>
-  </si>
-  <si>
-    <t>MDE1</t>
-  </si>
-  <si>
-    <t>HIS3</t>
-  </si>
-  <si>
-    <t>GLN4</t>
-  </si>
-  <si>
-    <t>NAT1</t>
-  </si>
-  <si>
-    <t>GLN1</t>
-  </si>
-  <si>
-    <t>LEU4</t>
-  </si>
-  <si>
-    <t>TYR1</t>
-  </si>
-  <si>
-    <t>ILV5</t>
-  </si>
-  <si>
-    <t>ORT1</t>
-  </si>
-  <si>
-    <t>LYS4</t>
-  </si>
-  <si>
-    <t>CAB3</t>
-  </si>
-  <si>
-    <t>ALE1</t>
-  </si>
-  <si>
-    <t>YEA6</t>
-  </si>
-  <si>
-    <t>CAB2</t>
-  </si>
-  <si>
-    <t>GRS2</t>
-  </si>
-  <si>
-    <t>URA2</t>
-  </si>
-  <si>
-    <t>NAT2</t>
-  </si>
-  <si>
-    <t>CRC1</t>
-  </si>
-  <si>
-    <t>WRS1</t>
-  </si>
-  <si>
-    <t>MET6</t>
-  </si>
-  <si>
-    <t>BNA1</t>
-  </si>
-  <si>
-    <t>HIS2</t>
-  </si>
-  <si>
-    <t>SPE2</t>
-  </si>
-  <si>
-    <t>ALA1</t>
-  </si>
-  <si>
-    <t>PHA2</t>
-  </si>
-  <si>
-    <t>CPA2</t>
-  </si>
-  <si>
-    <t>INM1</t>
-  </si>
-  <si>
-    <t>QNS1</t>
-  </si>
-  <si>
-    <t>ARO8</t>
-  </si>
-  <si>
-    <t>URA10</t>
-  </si>
-  <si>
-    <t>MET22</t>
-  </si>
-  <si>
-    <t>FRS2</t>
-  </si>
-  <si>
-    <t>TYS1</t>
-  </si>
-  <si>
-    <t>MET5</t>
-  </si>
-  <si>
-    <t>TRP2</t>
-  </si>
-  <si>
-    <t>ADE3</t>
-  </si>
-  <si>
-    <t>PRS2</t>
-  </si>
-  <si>
-    <t>ODC2</t>
-  </si>
-  <si>
-    <t>TRR1</t>
-  </si>
-  <si>
-    <t>OPI3</t>
-  </si>
-  <si>
-    <t>TRX2</t>
-  </si>
-  <si>
-    <t>ILV6</t>
-  </si>
-  <si>
-    <t>HOM6</t>
-  </si>
-  <si>
-    <t>ADE12</t>
-  </si>
-  <si>
-    <t>GUK1</t>
-  </si>
-  <si>
-    <t>APA1</t>
-  </si>
-  <si>
-    <t>ODC1</t>
-  </si>
-  <si>
-    <t>LYS2</t>
-  </si>
-  <si>
-    <t>PRS5</t>
-  </si>
-  <si>
-    <t>TRX1</t>
-  </si>
-  <si>
-    <t>AYR1</t>
-  </si>
-  <si>
-    <t>ADE17</t>
-  </si>
-  <si>
-    <t>OAC1</t>
-  </si>
-  <si>
-    <t>ISC1</t>
-  </si>
-  <si>
-    <t>ARD1</t>
-  </si>
-  <si>
-    <t>LAG1</t>
-  </si>
-  <si>
-    <t>GPT2</t>
-  </si>
-  <si>
-    <t>CPA1</t>
-  </si>
-  <si>
-    <t>DIA4</t>
-  </si>
-  <si>
-    <t>ADE16</t>
-  </si>
-  <si>
-    <t>MET13</t>
-  </si>
-  <si>
-    <t>CHO1</t>
-  </si>
-  <si>
-    <t>CHO2</t>
-  </si>
-  <si>
-    <t>CDS1</t>
-  </si>
-  <si>
-    <t>FMS1</t>
-  </si>
-  <si>
-    <t>KGD1</t>
-  </si>
-  <si>
-    <t>IPP1</t>
-  </si>
-  <si>
-    <t>ZWF1</t>
-  </si>
-  <si>
-    <t>BNA4</t>
-  </si>
-  <si>
-    <t>PRS3</t>
-  </si>
-  <si>
-    <t>MEU1</t>
-  </si>
-  <si>
-    <t>DPS1</t>
-  </si>
-  <si>
-    <t>JEN1</t>
-  </si>
-  <si>
-    <t>ARG4</t>
-  </si>
-  <si>
-    <t>BNA7</t>
-  </si>
-  <si>
-    <t>GUT2</t>
-  </si>
-  <si>
-    <t>ERG13</t>
-  </si>
-  <si>
-    <t>YNK1</t>
-  </si>
-  <si>
-    <t>SDH4</t>
-  </si>
-  <si>
-    <t>PRO3</t>
-  </si>
-  <si>
-    <t>BNA2</t>
-  </si>
-  <si>
-    <t>KGD2</t>
-  </si>
-  <si>
-    <t>LYS20</t>
-  </si>
-  <si>
-    <t>LIP1</t>
-  </si>
-  <si>
-    <t>BDH1</t>
-  </si>
-  <si>
-    <t>ARG8</t>
-  </si>
-  <si>
-    <t>MET10</t>
-  </si>
-  <si>
-    <t>FAT1</t>
-  </si>
-  <si>
-    <t>BAT2</t>
-  </si>
-  <si>
-    <t>FOL3</t>
-  </si>
-  <si>
-    <t>CAB4</t>
-  </si>
-  <si>
-    <t>GUS1</t>
-  </si>
-  <si>
-    <t>TRP5</t>
-  </si>
-  <si>
-    <t>MIR1</t>
-  </si>
-  <si>
-    <t>ILV2</t>
-  </si>
-  <si>
-    <t>FAS2</t>
-  </si>
-  <si>
-    <t>FAA1</t>
-  </si>
-  <si>
-    <t>SDH1</t>
-  </si>
-  <si>
-    <t>SHM1</t>
-  </si>
-  <si>
-    <t>ARO3</t>
-  </si>
-  <si>
-    <t>FRS1</t>
-  </si>
-  <si>
-    <t>APT1</t>
-  </si>
-  <si>
-    <t>UTR4</t>
-  </si>
-  <si>
-    <t>INM2</t>
-  </si>
-  <si>
-    <t>MRI1</t>
-  </si>
-  <si>
-    <t>LEU2</t>
-  </si>
-  <si>
-    <t>ICL1</t>
-  </si>
-  <si>
-    <t>ARG3</t>
-  </si>
-  <si>
-    <t>ADK1</t>
-  </si>
-  <si>
-    <t>ARO1</t>
-  </si>
-  <si>
-    <t>GRS1</t>
-  </si>
-  <si>
-    <t>IDP2</t>
-  </si>
-  <si>
-    <t>HIS7</t>
-  </si>
-  <si>
-    <t>TRP4</t>
-  </si>
-  <si>
-    <t>ILS1</t>
-  </si>
-  <si>
-    <t>SLC1</t>
-  </si>
-  <si>
-    <t>CAB1</t>
-  </si>
-  <si>
-    <t>SCT1</t>
-  </si>
-  <si>
-    <t>LYS1</t>
-  </si>
-  <si>
-    <t>ARO7</t>
-  </si>
-  <si>
-    <t>SDH3</t>
-  </si>
-  <si>
-    <t>HOM3</t>
-  </si>
-  <si>
-    <t>MET2</t>
-  </si>
-  <si>
-    <t>ARG7</t>
-  </si>
-  <si>
-    <t>ILV3</t>
   </si>
 </sst>
 </file>
@@ -917,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A191"/>
+  <dimension ref="A1:A160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,687 +1105,532 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/N_lim/output/ile_zgene.xlsx
+++ b/N_lim/output/ile_zgene.xlsx
@@ -14,462 +14,474 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="156">
+  <si>
+    <t>CHO1</t>
+  </si>
+  <si>
+    <t>TRX2</t>
+  </si>
+  <si>
+    <t>LEU4</t>
+  </si>
+  <si>
+    <t>ADE16</t>
+  </si>
+  <si>
+    <t>ARG7</t>
+  </si>
+  <si>
+    <t>SES1</t>
+  </si>
+  <si>
+    <t>FAA4</t>
+  </si>
+  <si>
+    <t>NCE103</t>
+  </si>
+  <si>
+    <t>YND1</t>
+  </si>
+  <si>
+    <t>SHM2</t>
+  </si>
+  <si>
+    <t>YNK1</t>
+  </si>
+  <si>
+    <t>MET10</t>
+  </si>
+  <si>
+    <t>GPP1</t>
+  </si>
+  <si>
+    <t>TRP4</t>
+  </si>
+  <si>
+    <t>ARG5,6</t>
+  </si>
+  <si>
+    <t>LYS1</t>
+  </si>
+  <si>
+    <t>TRR1</t>
+  </si>
+  <si>
+    <t>PRM15</t>
+  </si>
+  <si>
+    <t>MAE1</t>
+  </si>
+  <si>
+    <t>ADE12</t>
+  </si>
+  <si>
+    <t>HIS2</t>
+  </si>
+  <si>
+    <t>ALE1</t>
+  </si>
+  <si>
+    <t>SER1</t>
+  </si>
+  <si>
+    <t>PYC1</t>
+  </si>
+  <si>
+    <t>GPD2</t>
+  </si>
+  <si>
+    <t>TRX1</t>
+  </si>
+  <si>
+    <t>GLN1</t>
+  </si>
+  <si>
+    <t>CDC60</t>
+  </si>
+  <si>
+    <t>CTP1</t>
+  </si>
+  <si>
+    <t>PPA2</t>
+  </si>
+  <si>
+    <t>GDH2</t>
+  </si>
+  <si>
+    <t>MET12</t>
+  </si>
+  <si>
+    <t>ODC2</t>
+  </si>
+  <si>
+    <t>APA1</t>
+  </si>
+  <si>
+    <t>ARO4</t>
+  </si>
+  <si>
+    <t>URA5</t>
+  </si>
+  <si>
+    <t>URA10</t>
+  </si>
+  <si>
+    <t>CDC19</t>
+  </si>
+  <si>
+    <t>HIS3</t>
+  </si>
+  <si>
+    <t>PSD1</t>
+  </si>
+  <si>
+    <t>PRS2</t>
+  </si>
+  <si>
+    <t>PGK1</t>
+  </si>
+  <si>
+    <t>ADH1</t>
+  </si>
+  <si>
+    <t>SFA1</t>
+  </si>
+  <si>
+    <t>CDS1</t>
+  </si>
+  <si>
+    <t>DRS2</t>
+  </si>
   <si>
     <t>WRS1</t>
   </si>
   <si>
+    <t>LYS12</t>
+  </si>
+  <si>
+    <t>MET2</t>
+  </si>
+  <si>
+    <t>VAS1</t>
+  </si>
+  <si>
+    <t>SHM1</t>
+  </si>
+  <si>
+    <t>ARO1</t>
+  </si>
+  <si>
     <t>LYS4</t>
   </si>
   <si>
+    <t>AGC1</t>
+  </si>
+  <si>
+    <t>GRS1</t>
+  </si>
+  <si>
+    <t>FUM1</t>
+  </si>
+  <si>
+    <t>DIA4</t>
+  </si>
+  <si>
+    <t>DPS1</t>
+  </si>
+  <si>
+    <t>ARO7</t>
+  </si>
+  <si>
+    <t>FBA1</t>
+  </si>
+  <si>
+    <t>ARO8</t>
+  </si>
+  <si>
+    <t>ADH5</t>
+  </si>
+  <si>
+    <t>MET6</t>
+  </si>
+  <si>
+    <t>FRS1</t>
+  </si>
+  <si>
+    <t>OPI3</t>
+  </si>
+  <si>
+    <t>PPX1</t>
+  </si>
+  <si>
+    <t>ADK1</t>
+  </si>
+  <si>
+    <t>ALD6</t>
+  </si>
+  <si>
+    <t>CPA2</t>
+  </si>
+  <si>
+    <t>HIS4</t>
+  </si>
+  <si>
+    <t>GPT2</t>
+  </si>
+  <si>
+    <t>THR4</t>
+  </si>
+  <si>
+    <t>ILV2</t>
+  </si>
+  <si>
+    <t>DNF3</t>
+  </si>
+  <si>
+    <t>ADE17</t>
+  </si>
+  <si>
+    <t>ILS1</t>
+  </si>
+  <si>
+    <t>TRP5</t>
+  </si>
+  <si>
+    <t>PSD2</t>
+  </si>
+  <si>
+    <t>PRO2</t>
+  </si>
+  <si>
+    <t>PRO1</t>
+  </si>
+  <si>
+    <t>THR1</t>
+  </si>
+  <si>
+    <t>ARG3</t>
+  </si>
+  <si>
+    <t>TRP2</t>
+  </si>
+  <si>
+    <t>PNP1</t>
+  </si>
+  <si>
+    <t>GLN4</t>
+  </si>
+  <si>
+    <t>THS1</t>
+  </si>
+  <si>
+    <t>HOM6</t>
+  </si>
+  <si>
+    <t>HTS1</t>
+  </si>
+  <si>
+    <t>SER2</t>
+  </si>
+  <si>
+    <t>PYK2</t>
+  </si>
+  <si>
+    <t>BAT2</t>
+  </si>
+  <si>
+    <t>NEO1</t>
+  </si>
+  <si>
+    <t>LYS9</t>
+  </si>
+  <si>
+    <t>PPN1</t>
+  </si>
+  <si>
+    <t>GRS2</t>
+  </si>
+  <si>
+    <t>ADE3</t>
+  </si>
+  <si>
+    <t>ADE13</t>
+  </si>
+  <si>
+    <t>PHA2</t>
+  </si>
+  <si>
+    <t>PGM2</t>
+  </si>
+  <si>
+    <t>DED81</t>
+  </si>
+  <si>
+    <t>TYS1</t>
+  </si>
+  <si>
+    <t>IDP2</t>
+  </si>
+  <si>
+    <t>PFK1</t>
+  </si>
+  <si>
+    <t>GPP2</t>
+  </si>
+  <si>
+    <t>CHO2</t>
+  </si>
+  <si>
+    <t>LEU2</t>
+  </si>
+  <si>
+    <t>ODC1</t>
+  </si>
+  <si>
+    <t>SCT1</t>
+  </si>
+  <si>
+    <t>ILV6</t>
+  </si>
+  <si>
+    <t>FAA1</t>
+  </si>
+  <si>
+    <t>HIS7</t>
+  </si>
+  <si>
+    <t>HIS5</t>
+  </si>
+  <si>
+    <t>FRS2</t>
+  </si>
+  <si>
+    <t>PGM1</t>
+  </si>
+  <si>
+    <t>FAP7</t>
+  </si>
+  <si>
+    <t>MET17</t>
+  </si>
+  <si>
+    <t>GUK1</t>
+  </si>
+  <si>
+    <t>MET14</t>
+  </si>
+  <si>
+    <t>ARG1</t>
+  </si>
+  <si>
+    <t>HOM3</t>
+  </si>
+  <si>
+    <t>PRS3</t>
+  </si>
+  <si>
+    <t>MET5</t>
+  </si>
+  <si>
+    <t>ORT1</t>
+  </si>
+  <si>
+    <t>ASN2</t>
+  </si>
+  <si>
+    <t>HIS1</t>
+  </si>
+  <si>
+    <t>TRP3</t>
+  </si>
+  <si>
+    <t>SLC1</t>
+  </si>
+  <si>
+    <t>ALA1</t>
+  </si>
+  <si>
+    <t>LYS20</t>
+  </si>
+  <si>
+    <t>PMI40</t>
+  </si>
+  <si>
+    <t>URA6</t>
+  </si>
+  <si>
+    <t>PFK2</t>
+  </si>
+  <si>
+    <t>ILV3</t>
+  </si>
+  <si>
+    <t>GUS1</t>
+  </si>
+  <si>
+    <t>LYS21</t>
+  </si>
+  <si>
+    <t>ACO2</t>
+  </si>
+  <si>
+    <t>PRS1</t>
+  </si>
+  <si>
+    <t>ARG8</t>
+  </si>
+  <si>
+    <t>MET13</t>
+  </si>
+  <si>
+    <t>ILV5</t>
+  </si>
+  <si>
+    <t>GPD1</t>
+  </si>
+  <si>
+    <t>CPA1</t>
+  </si>
+  <si>
+    <t>SEC53</t>
+  </si>
+  <si>
+    <t>PYC2</t>
+  </si>
+  <si>
+    <t>PRO3</t>
+  </si>
+  <si>
+    <t>PAH1</t>
+  </si>
+  <si>
+    <t>ASN1</t>
+  </si>
+  <si>
+    <t>ARG4</t>
+  </si>
+  <si>
+    <t>ARO2</t>
+  </si>
+  <si>
+    <t>URA2</t>
+  </si>
+  <si>
+    <t>IDP1</t>
+  </si>
+  <si>
+    <t>MES1</t>
+  </si>
+  <si>
     <t>TYR1</t>
   </si>
   <si>
-    <t>TYS1</t>
+    <t>MET22</t>
   </si>
   <si>
     <t>PRS5</t>
   </si>
   <si>
-    <t>LYS21</t>
-  </si>
-  <si>
-    <t>TRP5</t>
-  </si>
-  <si>
-    <t>IDP2</t>
-  </si>
-  <si>
-    <t>LYS9</t>
-  </si>
-  <si>
-    <t>MET6</t>
-  </si>
-  <si>
-    <t>CDS1</t>
-  </si>
-  <si>
-    <t>MET13</t>
-  </si>
-  <si>
-    <t>ALE1</t>
-  </si>
-  <si>
-    <t>HIS1</t>
-  </si>
-  <si>
-    <t>CPA1</t>
-  </si>
-  <si>
-    <t>PIC2</t>
-  </si>
-  <si>
-    <t>URA10</t>
-  </si>
-  <si>
-    <t>GLN1</t>
-  </si>
-  <si>
-    <t>ALD6</t>
-  </si>
-  <si>
-    <t>GPD2</t>
-  </si>
-  <si>
-    <t>ILS1</t>
-  </si>
-  <si>
-    <t>PSD2</t>
-  </si>
-  <si>
-    <t>APA1</t>
-  </si>
-  <si>
-    <t>GPP1</t>
-  </si>
-  <si>
-    <t>PPN1</t>
-  </si>
-  <si>
-    <t>PMI40</t>
-  </si>
-  <si>
-    <t>ILV2</t>
-  </si>
-  <si>
-    <t>PRM15</t>
-  </si>
-  <si>
-    <t>HIS2</t>
-  </si>
-  <si>
-    <t>HOM6</t>
-  </si>
-  <si>
-    <t>FAP7</t>
-  </si>
-  <si>
-    <t>CHO1</t>
-  </si>
-  <si>
-    <t>URA5</t>
-  </si>
-  <si>
-    <t>HIS7</t>
-  </si>
-  <si>
-    <t>ARG3</t>
-  </si>
-  <si>
-    <t>ILV3</t>
-  </si>
-  <si>
-    <t>MIR1</t>
-  </si>
-  <si>
-    <t>SER1</t>
-  </si>
-  <si>
-    <t>TRX2</t>
-  </si>
-  <si>
-    <t>THS1</t>
-  </si>
-  <si>
-    <t>TRX1</t>
-  </si>
-  <si>
-    <t>PGK1</t>
-  </si>
-  <si>
-    <t>HIS3</t>
-  </si>
-  <si>
-    <t>HIS4</t>
-  </si>
-  <si>
-    <t>MET14</t>
-  </si>
-  <si>
-    <t>DPS1</t>
-  </si>
-  <si>
-    <t>LEU4</t>
-  </si>
-  <si>
-    <t>OPI3</t>
-  </si>
-  <si>
-    <t>LYS12</t>
-  </si>
-  <si>
-    <t>GPP2</t>
-  </si>
-  <si>
-    <t>FAA1</t>
-  </si>
-  <si>
-    <t>PGM1</t>
-  </si>
-  <si>
-    <t>MET5</t>
-  </si>
-  <si>
-    <t>ADE12</t>
-  </si>
-  <si>
-    <t>LYS1</t>
-  </si>
-  <si>
-    <t>LEU2</t>
-  </si>
-  <si>
-    <t>BAT2</t>
-  </si>
-  <si>
-    <t>THR1</t>
-  </si>
-  <si>
-    <t>ARO7</t>
-  </si>
-  <si>
-    <t>PRO1</t>
-  </si>
-  <si>
-    <t>PGM2</t>
-  </si>
-  <si>
-    <t>MAE1</t>
-  </si>
-  <si>
-    <t>ADE16</t>
-  </si>
-  <si>
-    <t>ADE13</t>
-  </si>
-  <si>
-    <t>PRS2</t>
-  </si>
-  <si>
-    <t>ADH1</t>
-  </si>
-  <si>
-    <t>FRS2</t>
-  </si>
-  <si>
-    <t>URA6</t>
-  </si>
-  <si>
-    <t>GRS1</t>
-  </si>
-  <si>
-    <t>MET2</t>
-  </si>
-  <si>
-    <t>MET22</t>
-  </si>
-  <si>
-    <t>PYC2</t>
-  </si>
-  <si>
     <t>ARO3</t>
-  </si>
-  <si>
-    <t>PRO3</t>
-  </si>
-  <si>
-    <t>PSD1</t>
-  </si>
-  <si>
-    <t>PNP1</t>
-  </si>
-  <si>
-    <t>SFA1</t>
-  </si>
-  <si>
-    <t>GLN4</t>
-  </si>
-  <si>
-    <t>ARG1</t>
-  </si>
-  <si>
-    <t>ODC1</t>
-  </si>
-  <si>
-    <t>SHM2</t>
-  </si>
-  <si>
-    <t>SHM1</t>
-  </si>
-  <si>
-    <t>PYC1</t>
-  </si>
-  <si>
-    <t>CDC19</t>
-  </si>
-  <si>
-    <t>MET12</t>
-  </si>
-  <si>
-    <t>PFK2</t>
-  </si>
-  <si>
-    <t>ARG7</t>
-  </si>
-  <si>
-    <t>AGC1</t>
-  </si>
-  <si>
-    <t>ASN1</t>
-  </si>
-  <si>
-    <t>ADE3</t>
-  </si>
-  <si>
-    <t>TRR1</t>
-  </si>
-  <si>
-    <t>CHO2</t>
-  </si>
-  <si>
-    <t>ARO4</t>
-  </si>
-  <si>
-    <t>URA2</t>
-  </si>
-  <si>
-    <t>SER2</t>
-  </si>
-  <si>
-    <t>CDC60</t>
-  </si>
-  <si>
-    <t>FUM1</t>
-  </si>
-  <si>
-    <t>PPX1</t>
-  </si>
-  <si>
-    <t>ASN2</t>
-  </si>
-  <si>
-    <t>PFK1</t>
-  </si>
-  <si>
-    <t>ARG5,6</t>
-  </si>
-  <si>
-    <t>FRS1</t>
-  </si>
-  <si>
-    <t>TRP4</t>
-  </si>
-  <si>
-    <t>GPD1</t>
-  </si>
-  <si>
-    <t>ALA1</t>
-  </si>
-  <si>
-    <t>ARO2</t>
-  </si>
-  <si>
-    <t>YNK1</t>
-  </si>
-  <si>
-    <t>SEC53</t>
-  </si>
-  <si>
-    <t>TRP2</t>
-  </si>
-  <si>
-    <t>TRP3</t>
-  </si>
-  <si>
-    <t>ORT1</t>
-  </si>
-  <si>
-    <t>CTP1</t>
-  </si>
-  <si>
-    <t>ILV5</t>
-  </si>
-  <si>
-    <t>PYK2</t>
-  </si>
-  <si>
-    <t>FAA4</t>
-  </si>
-  <si>
-    <t>ADE17</t>
-  </si>
-  <si>
-    <t>SLC1</t>
-  </si>
-  <si>
-    <t>HIS5</t>
-  </si>
-  <si>
-    <t>LYS20</t>
-  </si>
-  <si>
-    <t>ADH5</t>
-  </si>
-  <si>
-    <t>ARG8</t>
-  </si>
-  <si>
-    <t>CPA2</t>
-  </si>
-  <si>
-    <t>DED81</t>
-  </si>
-  <si>
-    <t>HOM3</t>
-  </si>
-  <si>
-    <t>MET10</t>
-  </si>
-  <si>
-    <t>HTS1</t>
-  </si>
-  <si>
-    <t>GUS1</t>
-  </si>
-  <si>
-    <t>PPA2</t>
-  </si>
-  <si>
-    <t>PRS3</t>
-  </si>
-  <si>
-    <t>MES1</t>
-  </si>
-  <si>
-    <t>ARO1</t>
-  </si>
-  <si>
-    <t>PHA2</t>
-  </si>
-  <si>
-    <t>PRS1</t>
-  </si>
-  <si>
-    <t>ODC2</t>
-  </si>
-  <si>
-    <t>IDP1</t>
-  </si>
-  <si>
-    <t>NCE103</t>
-  </si>
-  <si>
-    <t>DIA4</t>
-  </si>
-  <si>
-    <t>SES1</t>
-  </si>
-  <si>
-    <t>ACO2</t>
-  </si>
-  <si>
-    <t>ARG4</t>
-  </si>
-  <si>
-    <t>THR4</t>
-  </si>
-  <si>
-    <t>GUK1</t>
-  </si>
-  <si>
-    <t>PRO2</t>
-  </si>
-  <si>
-    <t>FBA1</t>
-  </si>
-  <si>
-    <t>YND1</t>
-  </si>
-  <si>
-    <t>GRS2</t>
-  </si>
-  <si>
-    <t>ILV6</t>
-  </si>
-  <si>
-    <t>ADK1</t>
-  </si>
-  <si>
-    <t>ARO8</t>
-  </si>
-  <si>
-    <t>VAS1</t>
-  </si>
-  <si>
-    <t>GDH2</t>
-  </si>
-  <si>
-    <t>MET17</t>
   </si>
 </sst>
 </file>
@@ -827,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A160"/>
+  <dimension ref="A1:A165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,342 +1117,342 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:1">
@@ -1455,82 +1467,82 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -1560,77 +1572,102 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
